--- a/results/metric_df/GNA_metrics.xlsx
+++ b/results/metric_df/GNA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -498,30 +508,36 @@
         <v>2.538044235441332</v>
       </c>
       <c r="D2" t="n">
+        <v>5.076088470882665</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.753384233219247</v>
+      </c>
+      <c r="F2" t="n">
         <v>18.73797620237976</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.4340000000000001</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>9.675000000000001</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -540,30 +556,36 @@
         <v>2.251101901585213</v>
       </c>
       <c r="D3" t="n">
+        <v>4.502203803170425</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.280227683002259</v>
+      </c>
+      <c r="F3" t="n">
         <v>28.4725902409759</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.4325</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>1.61</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -582,30 +604,36 @@
         <v>2.651420443376771</v>
       </c>
       <c r="D4" t="n">
+        <v>2.651420443376771</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.651420443376771</v>
+      </c>
+      <c r="F4" t="n">
         <v>6.080800000000001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.499</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>4.77</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>['Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>['Man(a1-6)']</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -624,30 +652,36 @@
         <v>2.351384937873273</v>
       </c>
       <c r="D5" t="n">
+        <v>2.351384937873273</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.351384937873273</v>
+      </c>
+      <c r="F5" t="n">
         <v>10.52366666666666</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.42</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>9.619999999999999</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>['Man(a1-3)']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>['Man(a1-3)']</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -666,30 +700,36 @@
         <v>2.270084840139852</v>
       </c>
       <c r="D6" t="n">
+        <v>2.270084840139852</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.270084840139852</v>
+      </c>
+      <c r="F6" t="n">
         <v>18.94786666666667</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.41</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>5.44</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>['Man(a1-3)']</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>['Man(a1-3)']</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -708,30 +748,36 @@
         <v>2.368509891498188</v>
       </c>
       <c r="D7" t="n">
+        <v>4.737019782996375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.456060678658576</v>
+      </c>
+      <c r="F7" t="n">
         <v>18.81986428571428</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.466</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>7.629999999999999</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -750,30 +796,36 @@
         <v>2.423617038821429</v>
       </c>
       <c r="D8" t="n">
+        <v>2.423617038821429</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.423617038821429</v>
+      </c>
+      <c r="F8" t="n">
         <v>38.74675000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.41</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>8.84</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>['Man(a1-6)']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>['Man(a1-6)']</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -792,30 +844,36 @@
         <v>2.492866163715956</v>
       </c>
       <c r="D9" t="n">
+        <v>7.478598491147868</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.575386834662778</v>
+      </c>
+      <c r="F9" t="n">
         <v>14.98801784940399</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.418</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>6.350000000000001</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>['Man(a1-6)', 'Man(a1-3)', 'Man(a1-3)']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -834,30 +892,36 @@
         <v>2.66305373505464</v>
       </c>
       <c r="D10" t="n">
+        <v>5.32610747010928</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.76768229887049</v>
+      </c>
+      <c r="F10" t="n">
         <v>9.62791</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.411</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>9.379999999999999</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -876,30 +940,36 @@
         <v>2.526816293663657</v>
       </c>
       <c r="D11" t="n">
+        <v>5.053632587327314</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.530553721246874</v>
+      </c>
+      <c r="F11" t="n">
         <v>15.02763776377638</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.4535</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>4.755</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -918,30 +988,36 @@
         <v>2.612142753164796</v>
       </c>
       <c r="D12" t="n">
+        <v>5.224285506329593</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.637590683923242</v>
+      </c>
+      <c r="F12" t="n">
         <v>8.1526</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>0.392</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>9.369999999999999</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -960,30 +1036,36 @@
         <v>2.305367038233467</v>
       </c>
       <c r="D13" t="n">
+        <v>4.610734076466935</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.415892868585273</v>
+      </c>
+      <c r="F13" t="n">
         <v>24.73031053105311</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>0.467</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>8.35</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1002,30 +1084,36 @@
         <v>2.510073352700914</v>
       </c>
       <c r="D14" t="n">
+        <v>5.020146705401829</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.545281005075958</v>
+      </c>
+      <c r="F14" t="n">
         <v>29.494275</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>0.434</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>6.12</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1044,30 +1132,36 @@
         <v>2.293722998174635</v>
       </c>
       <c r="D15" t="n">
+        <v>4.58744599634927</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.381465013269206</v>
+      </c>
+      <c r="F15" t="n">
         <v>16.19009349065094</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>0.4455</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>2.405</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1086,30 +1180,36 @@
         <v>2.311199434060129</v>
       </c>
       <c r="D16" t="n">
+        <v>4.622398868120259</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.325370683812271</v>
+      </c>
+      <c r="F16" t="n">
         <v>16.27265453090618</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>0.472</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>6.3</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/results/metric_df/GNA_metrics.xlsx
+++ b/results/metric_df/GNA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>0.4600479969147095</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.538044235441332</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.076088470882665</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>2.753384233219247</v>
       </c>
       <c r="F2" t="n">
-        <v>18.73797620237976</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4340000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.675000000000001</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.947811077440535</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>-0.1061050602224986</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.251101901585213</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.502203803170425</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>2.280227683002259</v>
       </c>
       <c r="F3" t="n">
-        <v>28.4725902409759</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4325</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>3.781655474711886</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,43 +537,24 @@
       <c r="B4" t="n">
         <v>2.981672502144145</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.651420443376771</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.651420443376771</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>2.651420443376771</v>
       </c>
       <c r="F4" t="n">
-        <v>6.080800000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.088736086598299</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -648,43 +566,24 @@
       <c r="B5" t="n">
         <v>3.225131333811021</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.351384937873273</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.351384937873273</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>2.351384937873273</v>
       </c>
       <c r="F5" t="n">
-        <v>10.52366666666666</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.884208601389888</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +595,24 @@
       <c r="B6" t="n">
         <v>-0.2156418008712187</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.270084840139852</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.270084840139852</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>2.270084840139852</v>
       </c>
       <c r="F6" t="n">
-        <v>18.94786666666667</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.158875378663859</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -744,43 +624,24 @@
       <c r="B7" t="n">
         <v>0.4831847680444544</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.368509891498188</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.737019782996375</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>2.456060678658576</v>
       </c>
       <c r="F7" t="n">
-        <v>18.81986428571428</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7.629999999999999</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.717966878995187</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -792,427 +653,314 @@
       <c r="B8" t="n">
         <v>1.439239996841115</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.423617038821429</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.423617038821429</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>2.423617038821429</v>
       </c>
       <c r="F8" t="n">
-        <v>38.74675000000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>4.856184955002936</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-6)[Man(a1-3)]Man(a1-6)[Man(a1-2)Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.700845040720831</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.492866163715956</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.478598491147868</v>
+        <v>3.196115384141857</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>2.575386834662778</v>
+        <v>2.270084840139852</v>
       </c>
       <c r="F9" t="n">
-        <v>14.98801784940399</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.350000000000001</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.158875378663859</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.653861353585114</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.66305373505464</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.32610747010928</v>
+        <v>5.858911910494074</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>2.76768229887049</v>
+        <v>2.456060678658576</v>
       </c>
       <c r="F10" t="n">
-        <v>9.62791</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9.379999999999999</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.717966878995187</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.807267212188836</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.526816293663657</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.053632587327314</v>
+        <v>3.700845040720831</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>2.530553721246874</v>
+        <v>4.971163081536553</v>
       </c>
       <c r="F11" t="n">
-        <v>15.02763776377638</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4535</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.755</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>4.11498138329921</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.433420862387115</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.612142753164796</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.224285506329593</v>
+        <v>5.653861353585114</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>2.637590683923242</v>
+        <v>2.76768229887049</v>
       </c>
       <c r="F12" t="n">
-        <v>8.1526</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.011473102974183</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4328893064881689</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.305367038233467</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.610734076466935</v>
+        <v>3.807267212188836</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>2.415892868585273</v>
+        <v>2.530553721246874</v>
       </c>
       <c r="F13" t="n">
-        <v>24.73031053105311</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>2.652190201590145</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.4325453982270518</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.510073352700914</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.020146705401829</v>
+        <v>3.433420862387115</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>2.545281005075958</v>
+        <v>2.637590683923242</v>
       </c>
       <c r="F14" t="n">
-        <v>29.494275</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>1.677232723856071</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.3759928031474183</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.293722998174635</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4.58744599634927</v>
+        <v>-0.4328893064881689</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>2.381465013269206</v>
+        <v>2.415892868585273</v>
       </c>
       <c r="F15" t="n">
-        <v>16.19009349065094</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.4455</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.405</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>2.868732697137593</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.4325453982270518</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2.545281005075958</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.275145672502249</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3759928031474183</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2.381465013269206</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.071189837335363</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
         <v>-0.3759928031474183</v>
       </c>
-      <c r="C16" t="n">
-        <v>2.311199434060129</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.622398868120259</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>2.325370683812271</v>
       </c>
-      <c r="F16" t="n">
-        <v>16.27265453090618</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>['Man(a1-6)', 'Man(a1-3)']</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+      <c r="F18" t="n">
+        <v>2.592947821655108</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
